--- a/Resources/Conocimientos.xlsx
+++ b/Resources/Conocimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\source\repos\Saratyc\Saratyc\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95B8FA6-286A-4516-8A89-8A132B58AE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6ED01-AE69-4662-B580-497C9BE31CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="21">
   <si>
     <t>IDAUXILIAR</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>Neurológico</t>
+  </si>
+  <si>
+    <t>41796003</t>
+  </si>
+  <si>
+    <t>51637213</t>
+  </si>
+  <si>
+    <t>Discapacidad auditiva</t>
+  </si>
+  <si>
+    <t>Medicación aplicación endovenosa'</t>
+  </si>
+  <si>
+    <t>Nefrostomia</t>
+  </si>
+  <si>
+    <t>onda Naso gástrica</t>
+  </si>
+  <si>
+    <t>Traqueostomía</t>
+  </si>
+  <si>
+    <t>Sonda Naso gástrica</t>
   </si>
 </sst>
 </file>
@@ -381,21 +405,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -423,7 +447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -437,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -451,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -465,7 +489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -479,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -493,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -507,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -519,6 +543,1238 @@
       </c>
       <c r="D9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1019014407</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1019014407</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1019014407</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1019014407</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1019014407</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1019014407</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1019014407</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1069078218</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1069078218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1069078218</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1069078218</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1069078218</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1071629228</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>1071629228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1071629228</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1071629228</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1071629228</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1071629228</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1116794759</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>1116794759</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1116794759</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1116794759</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1116794759</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>20964966</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>20964966</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>20964966</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>20964966</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>20964966</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>23415801</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>23415801</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>23415801</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>23415801</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>23415801</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>24212282</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>24212282</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>24212282</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>24212282</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>24212282</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>24212282</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>25874713</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>25874713</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>25874713</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>25874713</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>28689301</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>28689301</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>28689301</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>28689301</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>28689301</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>28689301</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>28689301</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>28689301</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>30333182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>30333182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>30333182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>30333182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>30333182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>30333182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>30724286</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>30724286</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>30724286</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>30724286</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>30724286</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>30724286</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>34941725</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>34941725</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>34941725</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>34941725</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>34941725</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>34941725</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>34941725</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>39722971</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>39722971</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>39722971</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>39722971</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>39722971</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>39722971</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
